--- a/data/trans_bre/P1801-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1801-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>14,44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54,58%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>104,46%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 21,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,0; 29,91</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26,77; 91,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38,95; 202,51</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>18,98</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 24,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 15,0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40,23; 89,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 51,68</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>10,14</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 15,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 10,26</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 39,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 26,36</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>3,88</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 9,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; 5,5</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 22,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 10,42</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>8,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 14,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 11,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 26,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 20,66</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 7,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 12,79</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 10,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 19,02</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>10,61</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6,95</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,06; 13,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,3; 10,99</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 29,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 22,26</t>
         </is>
       </c>
     </row>
@@ -998,12 +1317,12 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1801-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,26</t>
+          <t>19,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>104,46%</t>
+          <t>90,53%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 29,91</t>
+          <t>8,34; 29,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,95; 202,51</t>
+          <t>29,48; 184,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 15,0</t>
+          <t>-14,24; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 51,68</t>
+          <t>-33,44; 37,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,78%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,26</t>
+          <t>-1,21; 9,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 26,36</t>
+          <t>-2,58; 25,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-12,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-18,24%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,5</t>
+          <t>-37,52; 2,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 10,42</t>
+          <t>-45,12; 5,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 11,3</t>
+          <t>1,11; 10,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 20,66</t>
+          <t>1,71; 19,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 7,39</t>
+          <t>0,86; 14,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 12,79</t>
+          <t>0,05; 28,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 10,67</t>
+          <t>1,18; 22,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 19,02</t>
+          <t>0,07; 47,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>-3,67%</t>
         </is>
       </c>
     </row>
@@ -1278,44 +1278,144 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-10,55; 3,61</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 2,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 5,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-10,09; 4,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,61</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>8,06; 13,22</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 10,99</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 10,43</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,93; 29,31</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 22,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,72; 20,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1801-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1801-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,85; 21,52</t>
+          <t>8,17; 21,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 29,97</t>
+          <t>9,08; 30,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 91,58</t>
+          <t>26,48; 89,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,48; 184,94</t>
+          <t>33,83; 197,49</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 24,49</t>
+          <t>12,48; 24,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 11,99</t>
+          <t>-12,79; 11,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,23; 89,08</t>
+          <t>36,51; 88,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 37,79</t>
+          <t>-30,67; 34,92</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 15,57</t>
+          <t>4,65; 15,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,93</t>
+          <t>-1,88; 9,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 39,48</t>
+          <t>10,27; 39,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 25,1</t>
+          <t>-4,15; 24,87</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 9,88</t>
+          <t>-1,63; 9,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 2,92</t>
+          <t>-32,25; 2,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 22,17</t>
+          <t>-3,22; 21,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 5,02</t>
+          <t>-40,29; 5,28</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,45</t>
+          <t>2,05; 14,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,87</t>
+          <t>0,92; 10,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 26,15</t>
+          <t>3,2; 26,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 19,65</t>
+          <t>1,53; 19,12</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 14,39</t>
+          <t>1,74; 14,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 28,91</t>
+          <t>0,14; 27,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 22,04</t>
+          <t>2,51; 23,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 47,51</t>
+          <t>0,18; 44,19</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 3,61</t>
+          <t>-10,23; 3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,87</t>
+          <t>-8,28; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 5,12</t>
+          <t>-13,17; 4,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 4,05</t>
+          <t>-10,92; 3,29</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,22</t>
+          <t>8,37; 13,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 10,43</t>
+          <t>-5,19; 10,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,93; 29,31</t>
+          <t>17,4; 29,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 20,89</t>
+          <t>-8,94; 21,53</t>
         </is>
       </c>
     </row>
